--- a/Code/Results/Cases/Case_4_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_250/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.136488035255894</v>
+        <v>0.7967818721210449</v>
       </c>
       <c r="C2">
-        <v>0.128382958396724</v>
+        <v>0.1891467090428272</v>
       </c>
       <c r="D2">
-        <v>0.3222469754755508</v>
+        <v>0.5609414031378179</v>
       </c>
       <c r="E2">
-        <v>0.08991041692075896</v>
+        <v>0.1980660361244198</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6433667249391135</v>
+        <v>1.296034972618742</v>
       </c>
       <c r="H2">
-        <v>0.5128599672358547</v>
+        <v>1.248097522473557</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03153727828808695</v>
+        <v>0.08498178180349036</v>
       </c>
       <c r="K2">
-        <v>0.9009080688767881</v>
+        <v>0.3726252896001654</v>
       </c>
       <c r="L2">
-        <v>0.2457084806739402</v>
+        <v>0.3571867946786966</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.382599069101332</v>
+        <v>5.193077014063135</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.991130886885486</v>
+        <v>0.7574157545826665</v>
       </c>
       <c r="C3">
-        <v>0.1289576864931732</v>
+        <v>0.1893730532542826</v>
       </c>
       <c r="D3">
-        <v>0.3014862738962591</v>
+        <v>0.5585613759143229</v>
       </c>
       <c r="E3">
-        <v>0.08706642037979151</v>
+        <v>0.1983633079422518</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.6389515637426157</v>
+        <v>1.303484082826756</v>
       </c>
       <c r="H3">
-        <v>0.5177143624320379</v>
+        <v>1.255972145868085</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03215225103784913</v>
+        <v>0.08545722778968212</v>
       </c>
       <c r="K3">
-        <v>0.7838707948381796</v>
+        <v>0.337933004434035</v>
       </c>
       <c r="L3">
-        <v>0.2227847820127522</v>
+        <v>0.3527172189400289</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.382975806621687</v>
+        <v>5.225052079252421</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9022288680575059</v>
+        <v>0.7334971162608213</v>
       </c>
       <c r="C4">
-        <v>0.1293597434948524</v>
+        <v>0.1895361652208152</v>
       </c>
       <c r="D4">
-        <v>0.28910266639258</v>
+        <v>0.5573358725887516</v>
       </c>
       <c r="E4">
-        <v>0.08542496462231242</v>
+        <v>0.198617608128135</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.6374297080862164</v>
+        <v>1.308689898276015</v>
       </c>
       <c r="H4">
-        <v>0.5214075176725146</v>
+        <v>1.261250921833486</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03255610524502917</v>
+        <v>0.08576855039648112</v>
       </c>
       <c r="K4">
-        <v>0.7120793514120862</v>
+        <v>0.316673838697227</v>
       </c>
       <c r="L4">
-        <v>0.2089101962633677</v>
+        <v>0.3501121410265711</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.387208564863741</v>
+        <v>5.246943038683185</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8660745886772361</v>
+        <v>0.7238142884423553</v>
       </c>
       <c r="C5">
-        <v>0.1295358347796984</v>
+        <v>0.1896087305709173</v>
       </c>
       <c r="D5">
-        <v>0.2841433660896939</v>
+        <v>0.5568959204414057</v>
       </c>
       <c r="E5">
-        <v>0.08478150028822462</v>
+        <v>0.1987393240166</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.6370970294027458</v>
+        <v>1.310970292100471</v>
       </c>
       <c r="H5">
-        <v>0.5230866407625641</v>
+        <v>1.263513766174071</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03272720666832996</v>
+        <v>0.08590030326738862</v>
       </c>
       <c r="K5">
-        <v>0.6828318890827632</v>
+        <v>0.3080217003477088</v>
       </c>
       <c r="L5">
-        <v>0.2033034038820531</v>
+        <v>0.3490857071604765</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.389904665162462</v>
+        <v>5.256431968782522</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8600752894625998</v>
+        <v>0.7222103630167851</v>
       </c>
       <c r="C6">
-        <v>0.1295658112745173</v>
+        <v>0.1896211489610025</v>
       </c>
       <c r="D6">
-        <v>0.2833250181605393</v>
+        <v>0.5568264616704823</v>
       </c>
       <c r="E6">
-        <v>0.08467616457376259</v>
+        <v>0.1987606283544014</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6370588256668555</v>
+        <v>1.311358553406997</v>
       </c>
       <c r="H6">
-        <v>0.5233758321967557</v>
+        <v>1.263896259764081</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0327560100386437</v>
+        <v>0.08592247611791581</v>
       </c>
       <c r="K6">
-        <v>0.6779755959763207</v>
+        <v>0.3065857093821478</v>
       </c>
       <c r="L6">
-        <v>0.2023751602328119</v>
+        <v>0.3489173960493517</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.390410018164403</v>
+        <v>5.258041926024859</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9017409963600755</v>
+        <v>0.7333662692531391</v>
       </c>
       <c r="C7">
-        <v>0.1293620688695043</v>
+        <v>0.1895371191452888</v>
       </c>
       <c r="D7">
-        <v>0.2890354363167376</v>
+        <v>0.557329698333092</v>
       </c>
       <c r="E7">
-        <v>0.08541618478498236</v>
+        <v>0.198619176348565</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.6374240722466524</v>
+        <v>1.30872000868527</v>
       </c>
       <c r="H7">
-        <v>0.5214294643418995</v>
+        <v>1.261280986913199</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03255838644571174</v>
+        <v>0.08577030746538927</v>
       </c>
       <c r="K7">
-        <v>0.7116848890600238</v>
+        <v>0.31655710704824</v>
       </c>
       <c r="L7">
-        <v>0.2088343940985453</v>
+        <v>0.3500981556486025</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.387241038005328</v>
+        <v>5.247068708676153</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.086288317426465</v>
+        <v>0.7831565108019731</v>
       </c>
       <c r="C8">
-        <v>0.1285708471422495</v>
+        <v>0.1892197590775915</v>
       </c>
       <c r="D8">
-        <v>0.3150105752198584</v>
+        <v>0.5600719059984982</v>
       </c>
       <c r="E8">
-        <v>0.08890750429471694</v>
+        <v>0.1981536614154358</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.641590484792502</v>
+        <v>1.298472277981105</v>
       </c>
       <c r="H8">
-        <v>0.5143827659959186</v>
+        <v>1.250720670434859</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03174382461850644</v>
+        <v>0.08514169512050085</v>
       </c>
       <c r="K8">
-        <v>0.8605332135637127</v>
+        <v>0.360654997324076</v>
       </c>
       <c r="L8">
-        <v>0.2377607322955413</v>
+        <v>0.3556168625700025</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.381876893425158</v>
+        <v>5.203633552294946</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.451607250021823</v>
+        <v>0.8827688991979414</v>
       </c>
       <c r="C9">
-        <v>0.1274150885484104</v>
+        <v>0.1887877840680261</v>
       </c>
       <c r="D9">
-        <v>0.3690390949753208</v>
+        <v>0.5673151057351333</v>
       </c>
       <c r="E9">
-        <v>0.09662856858122026</v>
+        <v>0.1978087304553533</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6597435813571337</v>
+        <v>1.283389708969366</v>
       </c>
       <c r="H9">
-        <v>0.5064577236140337</v>
+        <v>1.233527429701908</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0303583638943179</v>
+        <v>0.08406249118404485</v>
       </c>
       <c r="K9">
-        <v>1.153446910034944</v>
+        <v>0.4474435605927738</v>
       </c>
       <c r="L9">
-        <v>0.2962348154913172</v>
+        <v>0.3675387766425047</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.404772333361649</v>
+        <v>5.136360427911455</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.723097353662922</v>
+        <v>0.9571276252125642</v>
       </c>
       <c r="C10">
-        <v>0.126815874246148</v>
+        <v>0.1885849888910585</v>
       </c>
       <c r="D10">
-        <v>0.4109257645330899</v>
+        <v>0.5737678337759036</v>
       </c>
       <c r="E10">
-        <v>0.1028985618890559</v>
+        <v>0.1978996481676312</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.6799736360663786</v>
+        <v>1.275363362379451</v>
       </c>
       <c r="H10">
-        <v>0.5045812245488719</v>
+        <v>1.223031793448371</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02947479973305356</v>
+        <v>0.08336262088687185</v>
       </c>
       <c r="K10">
-        <v>1.36998748567396</v>
+        <v>0.5113762533801491</v>
       </c>
       <c r="L10">
-        <v>0.3404984361780663</v>
+        <v>0.3769625151646068</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.444416042177096</v>
+        <v>5.097832171843407</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.847516854403722</v>
+        <v>0.991204342453841</v>
       </c>
       <c r="C11">
-        <v>0.1265996493104851</v>
+        <v>0.1885173065142567</v>
       </c>
       <c r="D11">
-        <v>0.4305298899730019</v>
+        <v>0.5769477178252771</v>
       </c>
       <c r="E11">
-        <v>0.1058958369010092</v>
+        <v>0.1980153911153977</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.690865055622595</v>
+        <v>1.27237507919267</v>
       </c>
       <c r="H11">
-        <v>0.5046683147522941</v>
+        <v>1.218719486093804</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02910323208285348</v>
+        <v>0.08306431196495012</v>
       </c>
       <c r="K11">
-        <v>1.46895929068026</v>
+        <v>0.5404934729147328</v>
       </c>
       <c r="L11">
-        <v>0.360974240222987</v>
+        <v>0.3813928216142983</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.46798863681127</v>
+        <v>5.082667558269833</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.894784215254475</v>
+        <v>1.004143677612802</v>
       </c>
       <c r="C12">
-        <v>0.1265260665185579</v>
+        <v>0.1884951847537693</v>
       </c>
       <c r="D12">
-        <v>0.4380389177656809</v>
+        <v>0.5781868879311105</v>
       </c>
       <c r="E12">
-        <v>0.1070530227967232</v>
+        <v>0.1980698808750958</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6952493077861845</v>
+        <v>1.271338795871117</v>
       </c>
       <c r="H12">
-        <v>0.5048441000480182</v>
+        <v>1.217152879387925</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02896700664575391</v>
+        <v>0.08295422659793772</v>
       </c>
       <c r="K12">
-        <v>1.506519390448176</v>
+        <v>0.5515237935222501</v>
       </c>
       <c r="L12">
-        <v>0.3687817410797436</v>
+        <v>0.3830909627553751</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.477763494716044</v>
+        <v>5.077264488101264</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.88459722321312</v>
+        <v>1.001355406614664</v>
       </c>
       <c r="C13">
-        <v>0.1265415416629665</v>
+        <v>0.1884997934440662</v>
       </c>
       <c r="D13">
-        <v>0.4364178120260078</v>
+        <v>0.5779184553568655</v>
       </c>
       <c r="E13">
-        <v>0.1068027934096634</v>
+        <v>0.1980576719768656</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6942932365049757</v>
+        <v>1.271557739132732</v>
       </c>
       <c r="H13">
-        <v>0.5047997646073696</v>
+        <v>1.21748732582931</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02899614415681029</v>
+        <v>0.08297780758421602</v>
       </c>
       <c r="K13">
-        <v>1.498426277171632</v>
+        <v>0.5491480368711166</v>
       </c>
       <c r="L13">
-        <v>0.3670977841389487</v>
+        <v>0.3827243290496369</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.475619703299827</v>
+        <v>5.078413042831073</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.851402391687145</v>
+        <v>0.992268168066829</v>
       </c>
       <c r="C14">
-        <v>0.1265934281740826</v>
+        <v>0.1885154163772143</v>
       </c>
       <c r="D14">
-        <v>0.431145913474154</v>
+        <v>0.5770489641191716</v>
       </c>
       <c r="E14">
-        <v>0.1059905867754694</v>
+        <v>0.1980196605756355</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.6912204396926995</v>
+        <v>1.272287913382684</v>
       </c>
       <c r="H14">
-        <v>0.504679869643013</v>
+        <v>1.218589270794553</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02909193429724866</v>
+        <v>0.08305519754504154</v>
       </c>
       <c r="K14">
-        <v>1.47204765954686</v>
+        <v>0.5414008621419555</v>
       </c>
       <c r="L14">
-        <v>0.3616154615758518</v>
+        <v>0.3815321190579652</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.468775505739615</v>
+        <v>5.082216242841071</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.831090078955867</v>
+        <v>0.9867065350489668</v>
       </c>
       <c r="C15">
-        <v>0.1266262966196692</v>
+        <v>0.188525441995246</v>
       </c>
       <c r="D15">
-        <v>0.4279280363111582</v>
+        <v>0.5765209316480195</v>
       </c>
       <c r="E15">
-        <v>0.1054960165745982</v>
+        <v>0.1979977647308324</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.6893726376747367</v>
+        <v>1.272747578508827</v>
       </c>
       <c r="H15">
-        <v>0.5046252606195765</v>
+        <v>1.219272884499361</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02915119529321508</v>
+        <v>0.08310297567189195</v>
       </c>
       <c r="K15">
-        <v>1.455901075131919</v>
+        <v>0.53665603066176</v>
       </c>
       <c r="L15">
-        <v>0.3582645316224244</v>
+        <v>0.3808045189765323</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.464695332423361</v>
+        <v>5.084590011088721</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.714986422976807</v>
+        <v>0.95490560435627</v>
       </c>
       <c r="C16">
-        <v>0.1268311552814438</v>
+        <v>0.1885899043577197</v>
       </c>
       <c r="D16">
-        <v>0.4096561810457899</v>
+        <v>0.5735649287666291</v>
       </c>
       <c r="E16">
-        <v>0.1027057127496178</v>
+        <v>0.1978935778191087</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6792972699645361</v>
+        <v>1.275571992478106</v>
       </c>
       <c r="H16">
-        <v>0.5045950946856692</v>
+        <v>1.223322905612619</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02949970308454652</v>
+        <v>0.08338251919125206</v>
       </c>
       <c r="K16">
-        <v>1.363530050644641</v>
+        <v>0.5094740044175978</v>
       </c>
       <c r="L16">
-        <v>0.3391675447070526</v>
+        <v>0.3766758577823452</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.442991330168098</v>
+        <v>5.098870726930187</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.644009649474839</v>
+        <v>0.935460361949481</v>
       </c>
       <c r="C17">
-        <v>0.1269713970017605</v>
+        <v>0.1886357250034436</v>
       </c>
       <c r="D17">
-        <v>0.3985921450668144</v>
+        <v>0.5718140390738995</v>
       </c>
       <c r="E17">
-        <v>0.1010320137685703</v>
+        <v>0.1978486884846937</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.6735606547821789</v>
+        <v>1.277474463355219</v>
       </c>
       <c r="H17">
-        <v>0.5048227263367693</v>
+        <v>1.225925777897814</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02972135725097402</v>
+        <v>0.08355914389712282</v>
       </c>
       <c r="K17">
-        <v>1.306992898670188</v>
+        <v>0.4928069598853995</v>
       </c>
       <c r="L17">
-        <v>0.3275426105328023</v>
+        <v>0.3741796860921909</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.431131052308018</v>
+        <v>5.108236309646657</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.603270713926463</v>
+        <v>0.9242996048734256</v>
       </c>
       <c r="C18">
-        <v>0.1270573528860481</v>
+        <v>0.18866439396799</v>
       </c>
       <c r="D18">
-        <v>0.3922797384586829</v>
+        <v>0.5708299961960392</v>
       </c>
       <c r="E18">
-        <v>0.1000829120858526</v>
+        <v>0.1978298728476169</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6704189610645841</v>
+        <v>1.278631114486089</v>
       </c>
       <c r="H18">
-        <v>0.5050417181252982</v>
+        <v>1.227466392229374</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02985169832207468</v>
+        <v>0.0836626228790518</v>
       </c>
       <c r="K18">
-        <v>1.274517191010318</v>
+        <v>0.4832237457835333</v>
       </c>
       <c r="L18">
-        <v>0.3208879536305602</v>
+        <v>0.3727574600870298</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.424827323157842</v>
+        <v>5.113845488971975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.589491213395036</v>
+        <v>0.9205248477898635</v>
       </c>
       <c r="C19">
-        <v>0.1270873594498596</v>
+        <v>0.1886744990107374</v>
       </c>
       <c r="D19">
-        <v>0.3901510967118611</v>
+        <v>0.5705007746775976</v>
       </c>
       <c r="E19">
-        <v>0.09976385341969518</v>
+        <v>0.197824706152673</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6693818478499338</v>
+        <v>1.279033454452261</v>
       </c>
       <c r="H19">
-        <v>0.5051307689899716</v>
+        <v>1.227995493732763</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02989631601497855</v>
+        <v>0.08369798377728976</v>
       </c>
       <c r="K19">
-        <v>1.263528427899956</v>
+        <v>0.4799796075464542</v>
       </c>
       <c r="L19">
-        <v>0.3186401027158894</v>
+        <v>0.3722782427420839</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.422780427004852</v>
+        <v>5.115782855352279</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.651556304436156</v>
+        <v>0.9375279012341764</v>
       </c>
       <c r="C20">
-        <v>0.1269559189253471</v>
+        <v>0.1886306079963163</v>
       </c>
       <c r="D20">
-        <v>0.3997645731760429</v>
+        <v>0.5719980425555633</v>
       </c>
       <c r="E20">
-        <v>0.1012087685377985</v>
+        <v>0.1978527424534562</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.674154869795899</v>
+        <v>1.277265484006548</v>
       </c>
       <c r="H20">
-        <v>0.5047893273576705</v>
+        <v>1.225644195157585</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02969746588353672</v>
+        <v>0.0835401464338883</v>
       </c>
       <c r="K20">
-        <v>1.313006826092391</v>
+        <v>0.4945808654980226</v>
       </c>
       <c r="L20">
-        <v>0.3287767899073799</v>
+        <v>0.374444011036644</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.432339623889874</v>
+        <v>5.107216317247548</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.861148211642274</v>
+        <v>0.9949363608249087</v>
       </c>
       <c r="C21">
-        <v>0.1265779610667224</v>
+        <v>0.1885107325332598</v>
       </c>
       <c r="D21">
-        <v>0.4326920283669722</v>
+        <v>0.5773034055573874</v>
       </c>
       <c r="E21">
-        <v>0.1062285384840322</v>
+        <v>0.1980305364109505</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.6921157987727611</v>
+        <v>1.272070856819226</v>
       </c>
       <c r="H21">
-        <v>0.5047111473335093</v>
+        <v>1.21826380232298</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02906367591858938</v>
+        <v>0.08303238819697434</v>
       </c>
       <c r="K21">
-        <v>1.47979336226885</v>
+        <v>0.5436762843944223</v>
       </c>
       <c r="L21">
-        <v>0.3632242532054875</v>
+        <v>0.3818817453238381</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.470762353971111</v>
+        <v>5.081089940296039</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.999027522406038</v>
+        <v>1.032661034519037</v>
       </c>
       <c r="C22">
-        <v>0.1263794043480715</v>
+        <v>0.1884528233858944</v>
       </c>
       <c r="D22">
-        <v>0.4547128806871967</v>
+        <v>0.58097480680064</v>
       </c>
       <c r="E22">
-        <v>0.109639228913867</v>
+        <v>0.1982088554820791</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7053780415620707</v>
+        <v>1.269231427007071</v>
       </c>
       <c r="H22">
-        <v>0.5054963183485057</v>
+        <v>1.213827103465064</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02867562292506243</v>
+        <v>0.08271730903409136</v>
       </c>
       <c r="K22">
-        <v>1.589281330352065</v>
+        <v>0.5757875338196072</v>
       </c>
       <c r="L22">
-        <v>0.3860535111392807</v>
+        <v>0.3868620440449888</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.500845902902938</v>
+        <v>5.065993254009754</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.925349326135063</v>
+        <v>1.012508181872192</v>
       </c>
       <c r="C23">
-        <v>0.1264808762470224</v>
+        <v>0.1884818688633914</v>
       </c>
       <c r="D23">
-        <v>0.4429119048256496</v>
+        <v>0.5789966883294255</v>
       </c>
       <c r="E23">
-        <v>0.1078065234885557</v>
+        <v>0.198108011065397</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.6981543539420727</v>
+        <v>1.270696055663095</v>
       </c>
       <c r="H23">
-        <v>0.5049981108988248</v>
+        <v>1.216159690752761</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02888030102537797</v>
+        <v>0.08288394075554351</v>
       </c>
       <c r="K23">
-        <v>1.530796219711107</v>
+        <v>0.5586471117510712</v>
       </c>
       <c r="L23">
-        <v>0.3738385106134245</v>
+        <v>0.3841930944682872</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.484316661431194</v>
+        <v>5.07386968900272</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.64814425594912</v>
+        <v>0.9365931088134687</v>
       </c>
       <c r="C24">
-        <v>0.1269628999793753</v>
+        <v>0.1886329141479948</v>
       </c>
       <c r="D24">
-        <v>0.3992343679745858</v>
+        <v>0.5719147842787322</v>
       </c>
       <c r="E24">
-        <v>0.1011288169085383</v>
+        <v>0.1978508878729457</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6738857394307161</v>
+        <v>1.277359767653124</v>
       </c>
       <c r="H24">
-        <v>0.5048041531149039</v>
+        <v>1.225771361061192</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02970825811775946</v>
+        <v>0.08354872915874267</v>
       </c>
       <c r="K24">
-        <v>1.31028784258703</v>
+        <v>0.4937788861770969</v>
       </c>
       <c r="L24">
-        <v>0.3282187284665952</v>
+        <v>0.3743244696735104</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.431791628761005</v>
+        <v>5.107676755609646</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.352312785827195</v>
+        <v>0.8556128843821966</v>
       </c>
       <c r="C25">
-        <v>0.1276845300961327</v>
+        <v>0.1888844183868201</v>
       </c>
       <c r="D25">
-        <v>0.3540613875982075</v>
+        <v>0.5651565348100149</v>
       </c>
       <c r="E25">
-        <v>0.09443979426809079</v>
+        <v>0.1978414373652626</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.6536836665932952</v>
+        <v>1.28693338643005</v>
       </c>
       <c r="H25">
-        <v>0.5079356085762612</v>
+        <v>1.237803014370741</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0307099697133717</v>
+        <v>0.08433806885215489</v>
       </c>
       <c r="K25">
-        <v>1.074025799922339</v>
+        <v>0.4239337076087111</v>
       </c>
       <c r="L25">
-        <v>0.2802052464412839</v>
+        <v>0.3641964404985174</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.394757391528628</v>
+        <v>5.152644692058715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_250/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7967818721210449</v>
+        <v>1.136488035255951</v>
       </c>
       <c r="C2">
-        <v>0.1891467090428272</v>
+        <v>0.1283829583963971</v>
       </c>
       <c r="D2">
-        <v>0.5609414031378179</v>
+        <v>0.3222469754754798</v>
       </c>
       <c r="E2">
-        <v>0.1980660361244198</v>
+        <v>0.08991041692074475</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.296034972618742</v>
+        <v>0.6433667249391277</v>
       </c>
       <c r="H2">
-        <v>1.248097522473557</v>
+        <v>0.5128599672359684</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08498178180349036</v>
+        <v>0.03153727828798925</v>
       </c>
       <c r="K2">
-        <v>0.3726252896001654</v>
+        <v>0.9009080688769018</v>
       </c>
       <c r="L2">
-        <v>0.3571867946786966</v>
+        <v>0.2457084806738834</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.193077014063135</v>
+        <v>2.382599069101474</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7574157545826665</v>
+        <v>0.9911308868854576</v>
       </c>
       <c r="C3">
-        <v>0.1893730532542826</v>
+        <v>0.1289576864934183</v>
       </c>
       <c r="D3">
-        <v>0.5585613759143229</v>
+        <v>0.3014862738961028</v>
       </c>
       <c r="E3">
-        <v>0.1983633079422518</v>
+        <v>0.08706642037978796</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.303484082826756</v>
+        <v>0.6389515637425376</v>
       </c>
       <c r="H3">
-        <v>1.255972145868085</v>
+        <v>0.517714362432045</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08545722778968212</v>
+        <v>0.03215225103788466</v>
       </c>
       <c r="K3">
-        <v>0.337933004434035</v>
+        <v>0.783870794838208</v>
       </c>
       <c r="L3">
-        <v>0.3527172189400289</v>
+        <v>0.2227847820127664</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.225052079252421</v>
+        <v>2.382975806621687</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7334971162608213</v>
+        <v>0.9022288680577901</v>
       </c>
       <c r="C4">
-        <v>0.1895361652208152</v>
+        <v>0.1293597434947706</v>
       </c>
       <c r="D4">
-        <v>0.5573358725887516</v>
+        <v>0.2891026663924379</v>
       </c>
       <c r="E4">
-        <v>0.198617608128135</v>
+        <v>0.08542496462231242</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.308689898276015</v>
+        <v>0.6374297080862164</v>
       </c>
       <c r="H4">
-        <v>1.261250921833486</v>
+        <v>0.5214075176725075</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08576855039648112</v>
+        <v>0.03255610524491193</v>
       </c>
       <c r="K4">
-        <v>0.316673838697227</v>
+        <v>0.7120793514121715</v>
       </c>
       <c r="L4">
-        <v>0.3501121410265711</v>
+        <v>0.2089101962633677</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.246943038683185</v>
+        <v>2.38720856486367</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7238142884423553</v>
+        <v>0.8660745886772361</v>
       </c>
       <c r="C5">
-        <v>0.1896087305709173</v>
+        <v>0.129535834779702</v>
       </c>
       <c r="D5">
-        <v>0.5568959204414057</v>
+        <v>0.284143366089765</v>
       </c>
       <c r="E5">
-        <v>0.1987393240166</v>
+        <v>0.08478150028822107</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.310970292100471</v>
+        <v>0.6370970294026037</v>
       </c>
       <c r="H5">
-        <v>1.263513766174071</v>
+        <v>0.5230866407624291</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08590030326738862</v>
+        <v>0.03272720666836193</v>
       </c>
       <c r="K5">
-        <v>0.3080217003477088</v>
+        <v>0.6828318890825926</v>
       </c>
       <c r="L5">
-        <v>0.3490857071604765</v>
+        <v>0.2033034038820603</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.256431968782522</v>
+        <v>2.389904665162362</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7222103630167851</v>
+        <v>0.8600752894626567</v>
       </c>
       <c r="C6">
-        <v>0.1896211489610025</v>
+        <v>0.1295658112746061</v>
       </c>
       <c r="D6">
-        <v>0.5568264616704823</v>
+        <v>0.2833250181604967</v>
       </c>
       <c r="E6">
-        <v>0.1987606283544014</v>
+        <v>0.08467616457378213</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.311358553406997</v>
+        <v>0.6370588256667986</v>
       </c>
       <c r="H6">
-        <v>1.263896259764081</v>
+        <v>0.5233758321968693</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08592247611791581</v>
+        <v>0.03275601003849804</v>
       </c>
       <c r="K6">
-        <v>0.3065857093821478</v>
+        <v>0.6779755959763207</v>
       </c>
       <c r="L6">
-        <v>0.3489173960493517</v>
+        <v>0.2023751602328829</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.258041926024859</v>
+        <v>2.390410018164388</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7333662692531391</v>
+        <v>0.9017409963600471</v>
       </c>
       <c r="C7">
-        <v>0.1895371191452888</v>
+        <v>0.1293620688692734</v>
       </c>
       <c r="D7">
-        <v>0.557329698333092</v>
+        <v>0.2890354363168797</v>
       </c>
       <c r="E7">
-        <v>0.198619176348565</v>
+        <v>0.08541618478500368</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.30872000868527</v>
+        <v>0.637424072246624</v>
       </c>
       <c r="H7">
-        <v>1.261280986913199</v>
+        <v>0.5214294643418924</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08577030746538927</v>
+        <v>0.03255838644560605</v>
       </c>
       <c r="K7">
-        <v>0.31655710704824</v>
+        <v>0.7116848890599954</v>
       </c>
       <c r="L7">
-        <v>0.3500981556486025</v>
+        <v>0.2088343940986235</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.247068708676153</v>
+        <v>2.387241038005186</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7831565108019731</v>
+        <v>1.086288317426352</v>
       </c>
       <c r="C8">
-        <v>0.1892197590775915</v>
+        <v>0.1285708471420079</v>
       </c>
       <c r="D8">
-        <v>0.5600719059984982</v>
+        <v>0.3150105752200716</v>
       </c>
       <c r="E8">
-        <v>0.1981536614154358</v>
+        <v>0.08890750429469918</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.298472277981105</v>
+        <v>0.6415904847924878</v>
       </c>
       <c r="H8">
-        <v>1.250720670434859</v>
+        <v>0.5143827659958902</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08514169512050085</v>
+        <v>0.0317438246185171</v>
       </c>
       <c r="K8">
-        <v>0.360654997324076</v>
+        <v>0.8605332135637696</v>
       </c>
       <c r="L8">
-        <v>0.3556168625700025</v>
+        <v>0.2377607322954134</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.203633552294946</v>
+        <v>2.381876893425073</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8827688991979414</v>
+        <v>1.451607250021766</v>
       </c>
       <c r="C9">
-        <v>0.1887877840680261</v>
+        <v>0.1274150885484033</v>
       </c>
       <c r="D9">
-        <v>0.5673151057351333</v>
+        <v>0.3690390949751361</v>
       </c>
       <c r="E9">
-        <v>0.1978087304553533</v>
+        <v>0.09662856858121316</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.283389708969366</v>
+        <v>0.6597435813571764</v>
       </c>
       <c r="H9">
-        <v>1.233527429701908</v>
+        <v>0.5064577236140337</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08406249118404485</v>
+        <v>0.03035836389434188</v>
       </c>
       <c r="K9">
-        <v>0.4474435605927738</v>
+        <v>1.153446910035001</v>
       </c>
       <c r="L9">
-        <v>0.3675387766425047</v>
+        <v>0.2962348154912604</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.136360427911455</v>
+        <v>2.404772333361677</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9571276252125642</v>
+        <v>1.723097353662865</v>
       </c>
       <c r="C10">
-        <v>0.1885849888910585</v>
+        <v>0.126815874246148</v>
       </c>
       <c r="D10">
-        <v>0.5737678337759036</v>
+        <v>0.4109257645331894</v>
       </c>
       <c r="E10">
-        <v>0.1978996481676312</v>
+        <v>0.1028985618890843</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.275363362379451</v>
+        <v>0.679973636066336</v>
       </c>
       <c r="H10">
-        <v>1.223031793448371</v>
+        <v>0.5045812245489003</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08336262088687185</v>
+        <v>0.02947479973298606</v>
       </c>
       <c r="K10">
-        <v>0.5113762533801491</v>
+        <v>1.369987485674017</v>
       </c>
       <c r="L10">
-        <v>0.3769625151646068</v>
+        <v>0.3404984361780521</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.097832171843407</v>
+        <v>2.444416042177153</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.991204342453841</v>
+        <v>1.847516854404034</v>
       </c>
       <c r="C11">
-        <v>0.1885173065142567</v>
+        <v>0.1265996493112027</v>
       </c>
       <c r="D11">
-        <v>0.5769477178252771</v>
+        <v>0.4305298899731156</v>
       </c>
       <c r="E11">
-        <v>0.1980153911153977</v>
+        <v>0.1058958369010092</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.27237507919267</v>
+        <v>0.690865055622595</v>
       </c>
       <c r="H11">
-        <v>1.218719486093804</v>
+        <v>0.5046683147524078</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08306431196495012</v>
+        <v>0.02910323208290144</v>
       </c>
       <c r="K11">
-        <v>0.5404934729147328</v>
+        <v>1.468959290680289</v>
       </c>
       <c r="L11">
-        <v>0.3813928216142983</v>
+        <v>0.3609742402229585</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.082667558269833</v>
+        <v>2.46798863681127</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.004143677612802</v>
+        <v>1.894784215254589</v>
       </c>
       <c r="C12">
-        <v>0.1884951847537693</v>
+        <v>0.1265260665182169</v>
       </c>
       <c r="D12">
-        <v>0.5781868879311105</v>
+        <v>0.4380389177657662</v>
       </c>
       <c r="E12">
-        <v>0.1980698808750958</v>
+        <v>0.107053022796709</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.271338795871117</v>
+        <v>0.6952493077862272</v>
       </c>
       <c r="H12">
-        <v>1.217152879387925</v>
+        <v>0.5048441000480466</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08295422659793772</v>
+        <v>0.02896700664575924</v>
       </c>
       <c r="K12">
-        <v>0.5515237935222501</v>
+        <v>1.506519390448034</v>
       </c>
       <c r="L12">
-        <v>0.3830909627553751</v>
+        <v>0.3687817410797294</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.077264488101264</v>
+        <v>2.477763494716015</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.001355406614664</v>
+        <v>1.884597223213177</v>
       </c>
       <c r="C13">
-        <v>0.1884997934440662</v>
+        <v>0.1265415416634639</v>
       </c>
       <c r="D13">
-        <v>0.5779184553568655</v>
+        <v>0.4364178120260078</v>
       </c>
       <c r="E13">
-        <v>0.1980576719768656</v>
+        <v>0.1068027934096882</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.271557739132732</v>
+        <v>0.6942932365048762</v>
       </c>
       <c r="H13">
-        <v>1.21748732582931</v>
+        <v>0.5047997646073838</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08297780758421602</v>
+        <v>0.02899614415670015</v>
       </c>
       <c r="K13">
-        <v>0.5491480368711166</v>
+        <v>1.49842627717166</v>
       </c>
       <c r="L13">
-        <v>0.3827243290496369</v>
+        <v>0.3670977841390055</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.078413042831073</v>
+        <v>2.475619703299799</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.992268168066829</v>
+        <v>1.851402391687031</v>
       </c>
       <c r="C14">
-        <v>0.1885154163772143</v>
+        <v>0.1265934281740826</v>
       </c>
       <c r="D14">
-        <v>0.5770489641191716</v>
+        <v>0.4311459134740403</v>
       </c>
       <c r="E14">
-        <v>0.1980196605756355</v>
+        <v>0.1059905867754694</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.272287913382684</v>
+        <v>0.6912204396926995</v>
       </c>
       <c r="H14">
-        <v>1.218589270794553</v>
+        <v>0.5046798696428993</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08305519754504154</v>
+        <v>0.02909193429728241</v>
       </c>
       <c r="K14">
-        <v>0.5414008621419555</v>
+        <v>1.472047659546831</v>
       </c>
       <c r="L14">
-        <v>0.3815321190579652</v>
+        <v>0.3616154615759086</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.082216242841071</v>
+        <v>2.468775505739615</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9867065350489668</v>
+        <v>1.831090078955867</v>
       </c>
       <c r="C15">
-        <v>0.188525441995246</v>
+        <v>0.1266262966194276</v>
       </c>
       <c r="D15">
-        <v>0.5765209316480195</v>
+        <v>0.4279280363109592</v>
       </c>
       <c r="E15">
-        <v>0.1979977647308324</v>
+        <v>0.1054960165746159</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.272747578508827</v>
+        <v>0.6893726376747509</v>
       </c>
       <c r="H15">
-        <v>1.219272884499361</v>
+        <v>0.5046252606195765</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08310297567189195</v>
+        <v>0.02915119529332522</v>
       </c>
       <c r="K15">
-        <v>0.53665603066176</v>
+        <v>1.455901075131919</v>
       </c>
       <c r="L15">
-        <v>0.3808045189765323</v>
+        <v>0.3582645316223676</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.084590011088721</v>
+        <v>2.464695332423389</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.95490560435627</v>
+        <v>1.714986422976779</v>
       </c>
       <c r="C16">
-        <v>0.1885899043577197</v>
+        <v>0.1268311552814509</v>
       </c>
       <c r="D16">
-        <v>0.5735649287666291</v>
+        <v>0.4096561810456478</v>
       </c>
       <c r="E16">
-        <v>0.1978935778191087</v>
+        <v>0.1027057127496143</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.275571992478106</v>
+        <v>0.6792972699646356</v>
       </c>
       <c r="H16">
-        <v>1.223322905612619</v>
+        <v>0.5045950946855555</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08338251919125206</v>
+        <v>0.02949970308447369</v>
       </c>
       <c r="K16">
-        <v>0.5094740044175978</v>
+        <v>1.363530050644556</v>
       </c>
       <c r="L16">
-        <v>0.3766758577823452</v>
+        <v>0.3391675447070668</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.098870726930187</v>
+        <v>2.442991330167956</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.935460361949481</v>
+        <v>1.644009649474924</v>
       </c>
       <c r="C17">
-        <v>0.1886357250034436</v>
+        <v>0.1269713970021371</v>
       </c>
       <c r="D17">
-        <v>0.5718140390738995</v>
+        <v>0.3985921450667576</v>
       </c>
       <c r="E17">
-        <v>0.1978486884846937</v>
+        <v>0.1010320137685525</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.277474463355219</v>
+        <v>0.6735606547821646</v>
       </c>
       <c r="H17">
-        <v>1.225925777897814</v>
+        <v>0.5048227263366556</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08355914389712282</v>
+        <v>0.02972135725102554</v>
       </c>
       <c r="K17">
-        <v>0.4928069598853995</v>
+        <v>1.30699289867033</v>
       </c>
       <c r="L17">
-        <v>0.3741796860921909</v>
+        <v>0.3275426105327313</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.108236309646657</v>
+        <v>2.43113105230799</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9242996048734256</v>
+        <v>1.603270713926293</v>
       </c>
       <c r="C18">
-        <v>0.18866439396799</v>
+        <v>0.1270573528858421</v>
       </c>
       <c r="D18">
-        <v>0.5708299961960392</v>
+        <v>0.3922797384586403</v>
       </c>
       <c r="E18">
-        <v>0.1978298728476169</v>
+        <v>0.1000829120858739</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.278631114486089</v>
+        <v>0.6704189610645699</v>
       </c>
       <c r="H18">
-        <v>1.227466392229374</v>
+        <v>0.5050417181252982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0836626228790518</v>
+        <v>0.02985169832204626</v>
       </c>
       <c r="K18">
-        <v>0.4832237457835333</v>
+        <v>1.274517191010204</v>
       </c>
       <c r="L18">
-        <v>0.3727574600870298</v>
+        <v>0.320887953630475</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.113845488971975</v>
+        <v>2.424827323157842</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9205248477898635</v>
+        <v>1.589491213394865</v>
       </c>
       <c r="C19">
-        <v>0.1886744990107374</v>
+        <v>0.1270873594500088</v>
       </c>
       <c r="D19">
-        <v>0.5705007746775976</v>
+        <v>0.3901510967118043</v>
       </c>
       <c r="E19">
-        <v>0.197824706152673</v>
+        <v>0.0997638534197165</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.279033454452261</v>
+        <v>0.6693818478499338</v>
       </c>
       <c r="H19">
-        <v>1.227995493732763</v>
+        <v>0.5051307689898579</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08369798377728976</v>
+        <v>0.02989631601516507</v>
       </c>
       <c r="K19">
-        <v>0.4799796075464542</v>
+        <v>1.263528427899928</v>
       </c>
       <c r="L19">
-        <v>0.3722782427420839</v>
+        <v>0.3186401027158183</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.115782855352279</v>
+        <v>2.422780427004795</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9375279012341764</v>
+        <v>1.6515563044359</v>
       </c>
       <c r="C20">
-        <v>0.1886306079963163</v>
+        <v>0.1269559189253471</v>
       </c>
       <c r="D20">
-        <v>0.5719980425555633</v>
+        <v>0.3997645731760429</v>
       </c>
       <c r="E20">
-        <v>0.1978527424534562</v>
+        <v>0.1012087685378162</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.277265484006548</v>
+        <v>0.674154869795899</v>
       </c>
       <c r="H20">
-        <v>1.225644195157585</v>
+        <v>0.5047893273575568</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0835401464338883</v>
+        <v>0.02969746588352784</v>
       </c>
       <c r="K20">
-        <v>0.4945808654980226</v>
+        <v>1.313006826092504</v>
       </c>
       <c r="L20">
-        <v>0.374444011036644</v>
+        <v>0.3287767899073799</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.107216317247548</v>
+        <v>2.432339623889874</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9949363608249087</v>
+        <v>1.861148211642131</v>
       </c>
       <c r="C21">
-        <v>0.1885107325332598</v>
+        <v>0.1265779610669711</v>
       </c>
       <c r="D21">
-        <v>0.5773034055573874</v>
+        <v>0.4326920283671143</v>
       </c>
       <c r="E21">
-        <v>0.1980305364109505</v>
+        <v>0.10622853848405</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.272070856819226</v>
+        <v>0.6921157987728321</v>
       </c>
       <c r="H21">
-        <v>1.21826380232298</v>
+        <v>0.5047111473333956</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.08303238819697434</v>
+        <v>0.02906367591865333</v>
       </c>
       <c r="K21">
-        <v>0.5436762843944223</v>
+        <v>1.47979336226885</v>
       </c>
       <c r="L21">
-        <v>0.3818817453238381</v>
+        <v>0.363224253205459</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.081089940296039</v>
+        <v>2.470762353971111</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.032661034519037</v>
+        <v>1.999027522405811</v>
       </c>
       <c r="C22">
-        <v>0.1884528233858944</v>
+        <v>0.1263794043480786</v>
       </c>
       <c r="D22">
-        <v>0.58097480680064</v>
+        <v>0.4547128806872252</v>
       </c>
       <c r="E22">
-        <v>0.1982088554820791</v>
+        <v>0.1096392289138741</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.269231427007071</v>
+        <v>0.7053780415620849</v>
       </c>
       <c r="H22">
-        <v>1.213827103465064</v>
+        <v>0.5054963183485057</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.08271730903409136</v>
+        <v>0.02867562292508019</v>
       </c>
       <c r="K22">
-        <v>0.5757875338196072</v>
+        <v>1.589281330352065</v>
       </c>
       <c r="L22">
-        <v>0.3868620440449888</v>
+        <v>0.3860535111393659</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.065993254009754</v>
+        <v>2.500845902902938</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.012508181872192</v>
+        <v>1.925349326135034</v>
       </c>
       <c r="C23">
-        <v>0.1884818688633914</v>
+        <v>0.1264808762472356</v>
       </c>
       <c r="D23">
-        <v>0.5789966883294255</v>
+        <v>0.4429119048255927</v>
       </c>
       <c r="E23">
-        <v>0.198108011065397</v>
+        <v>0.1078065234885521</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.270696055663095</v>
+        <v>0.6981543539420727</v>
       </c>
       <c r="H23">
-        <v>1.216159690752761</v>
+        <v>0.5049981108988106</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.08288394075554351</v>
+        <v>0.02888030102530514</v>
       </c>
       <c r="K23">
-        <v>0.5586471117510712</v>
+        <v>1.530796219711192</v>
       </c>
       <c r="L23">
-        <v>0.3841930944682872</v>
+        <v>0.3738385106134956</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.07386968900272</v>
+        <v>2.484316661431166</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9365931088134687</v>
+        <v>1.64814425594912</v>
       </c>
       <c r="C24">
-        <v>0.1886329141479948</v>
+        <v>0.1269628999791692</v>
       </c>
       <c r="D24">
-        <v>0.5719147842787322</v>
+        <v>0.3992343679746426</v>
       </c>
       <c r="E24">
-        <v>0.1978508878729457</v>
+        <v>0.1011288169085027</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.277359767653124</v>
+        <v>0.6738857394307303</v>
       </c>
       <c r="H24">
-        <v>1.225771361061192</v>
+        <v>0.5048041531150176</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08354872915874267</v>
+        <v>0.02970825811783584</v>
       </c>
       <c r="K24">
-        <v>0.4937788861770969</v>
+        <v>1.310287842586916</v>
       </c>
       <c r="L24">
-        <v>0.3743244696735104</v>
+        <v>0.328218728466652</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.107676755609646</v>
+        <v>2.431791628760919</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8556128843821966</v>
+        <v>1.352312785827166</v>
       </c>
       <c r="C25">
-        <v>0.1888844183868201</v>
+        <v>0.1276845300961398</v>
       </c>
       <c r="D25">
-        <v>0.5651565348100149</v>
+        <v>0.3540613875983354</v>
       </c>
       <c r="E25">
-        <v>0.1978414373652626</v>
+        <v>0.09443979426807658</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.28693338643005</v>
+        <v>0.6536836665932952</v>
       </c>
       <c r="H25">
-        <v>1.237803014370741</v>
+        <v>0.5079356085762754</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08433806885215489</v>
+        <v>0.03070996971337969</v>
       </c>
       <c r="K25">
-        <v>0.4239337076087111</v>
+        <v>1.074025799922396</v>
       </c>
       <c r="L25">
-        <v>0.3641964404985174</v>
+        <v>0.2802052464411702</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.152644692058715</v>
+        <v>2.394757391528657</v>
       </c>
     </row>
   </sheetData>
